--- a/Add sectors/2. New supply chains - Activities.xlsx
+++ b/Add sectors/2. New supply chains - Activities.xlsx
@@ -2880,7 +2880,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="C91" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="C94" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="C97" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="C98" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="C99" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="C100" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="C101" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="C102" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="C103" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="C104" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="C106" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="C107" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="C108" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="C109" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="C110" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="C111" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="C112" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="C113" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="C114" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="C116" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="C117" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="C118" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="C119" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="C120" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C121" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="C122" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="C123" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="C124" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="C126" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="C127" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="C128" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="C129" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="C130" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="C131" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="C132" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="C133" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="C134" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="C136" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="C137" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="C138" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="C139" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="C140" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="C141" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="C142" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -5243,7 +5243,7 @@
       </c>
       <c r="C143" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="C144" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C146" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="C147" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="C148" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="C149" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="C150" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="C151" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="C152" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="C153" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="C154" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="C156" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="C157" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="C158" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="C159" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="C160" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="C161" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="C162" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="C163" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="C164" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="C166" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="C167" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="C168" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="C169" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="C170" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="C171" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="C172" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="C173" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C174" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="C176" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="C177" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="C178" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="C179" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="C180" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="C181" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -5906,7 +5906,7 @@
       </c>
       <c r="C182" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="C183" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="C184" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="C186" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="C187" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="C188" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="C189" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="C190" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="C191" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="C192" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="C193" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="C194" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -6144,7 +6144,7 @@
       </c>
       <c r="C196" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="C197" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="C198" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="C199" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="C200" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -6229,7 +6229,7 @@
       </c>
       <c r="C201" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="C202" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="C203" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="C204" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="C206" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="C207" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="C208" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="C209" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="C210" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="C211" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -6416,7 +6416,7 @@
       </c>
       <c r="C212" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="C213" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -6450,7 +6450,7 @@
       </c>
       <c r="C214" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -6484,7 +6484,7 @@
       </c>
       <c r="C216" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="C217" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="C218" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
       </c>
       <c r="C219" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -6552,7 +6552,7 @@
       </c>
       <c r="C220" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -6569,7 +6569,7 @@
       </c>
       <c r="C221" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="C222" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="C223" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -8849,1102 +8849,1102 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
           <t>Manufacturing of steam reformer</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with electrolysis</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="V3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="W3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="X3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of electrolyser</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="Y3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="Z3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="AA3" s="1" t="inlineStr">
         <is>
           <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="AD3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="AE3" s="1" t="inlineStr">
         <is>
           <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="AF3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="AG3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="AH3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="AI3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="AJ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="AK3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="AL3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="AM3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="AN3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="AO3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="AP3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="AQ3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="AR3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="AS3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="AT3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="AU3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="AV3" s="1" t="inlineStr">
         <is>
           <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="AW3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="AX3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="AY3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="AZ3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="BA3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="BB3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="BC3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="BD3" s="1" t="inlineStr">
         <is>
           <t>Steel production through NG-DR</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="BE3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="BF3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="BG3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="BH3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="BI3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="BJ3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="BK3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="BL3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="BM3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of steam reformer</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="BN3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="BO3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="BP3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="BQ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="BR3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="BS3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="BT3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="BU3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with electrolysis</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="BV3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="BW3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="BX3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="BY3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="BZ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="CA3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="CB3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="CC3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="CD3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="CE3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="CF3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of electrolyser</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
+      <c r="CG3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="CH3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="CI3" s="1" t="inlineStr">
         <is>
           <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
-      <c r="Q3" s="1" t="inlineStr">
+      <c r="CJ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="CK3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
-      <c r="R3" s="1" t="inlineStr">
+      <c r="CL3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="CM3" s="1" t="inlineStr">
         <is>
           <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
-      <c r="S3" s="1" t="inlineStr">
+      <c r="CN3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="CO3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="CP3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="CQ3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="CR3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="CS3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="CT3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="CU3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="CV3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
-      <c r="T3" s="1" t="inlineStr">
+      <c r="CW3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="CX3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="CY3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="CZ3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="DA3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="DB3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="DC3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="DD3" s="1" t="inlineStr">
         <is>
           <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
-      <c r="U3" s="1" t="inlineStr">
+      <c r="DE3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="DF3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="DG3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="DH3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="DI3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="DJ3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="DK3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="DL3" s="1" t="inlineStr">
         <is>
           <t>Steel production through NG-DR</t>
         </is>
       </c>
-      <c r="V3" s="1" t="inlineStr">
+      <c r="DM3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="DN3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="DO3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="DP3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="DQ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="DR3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="DS3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="DT3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="DU3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of steam reformer</t>
         </is>
       </c>
-      <c r="W3" s="1" t="inlineStr">
+      <c r="DV3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="DW3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="DX3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="DY3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="DZ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="EA3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="EB3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="EC3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with electrolysis</t>
         </is>
       </c>
-      <c r="X3" s="1" t="inlineStr">
+      <c r="ED3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="EE3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="EF3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="EG3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="EH3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="EI3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="EJ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="EK3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="EL3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
-      <c r="Y3" s="1" t="inlineStr">
+      <c r="EM3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="EN3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of electrolyser</t>
         </is>
       </c>
-      <c r="Z3" s="1" t="inlineStr">
+      <c r="EO3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="EP3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="EQ3" s="1" t="inlineStr">
         <is>
           <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
-      <c r="AA3" s="1" t="inlineStr">
+      <c r="ER3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="ES3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
-      <c r="AB3" s="1" t="inlineStr">
+      <c r="ET3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="EU3" s="1" t="inlineStr">
         <is>
           <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
-      <c r="AC3" s="1" t="inlineStr">
+      <c r="EV3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="EW3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="EX3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="EY3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="EZ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="FA3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="FB3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="FC3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="FD3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
-      <c r="AD3" s="1" t="inlineStr">
+      <c r="FE3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="FF3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="FG3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="FH3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="FI3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="FJ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="FK3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="FL3" s="1" t="inlineStr">
         <is>
           <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
-      <c r="AE3" s="1" t="inlineStr">
+      <c r="FM3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="FN3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="FO3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="FP3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="FQ3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="FR3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="FS3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="FT3" s="1" t="inlineStr">
         <is>
           <t>Steel production through NG-DR</t>
         </is>
       </c>
-      <c r="AF3" s="1" t="inlineStr">
+      <c r="FU3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="FV3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="FW3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="FX3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="FY3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="FZ3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="GA3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="GB3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="GC3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of steam reformer</t>
         </is>
       </c>
-      <c r="AG3" s="1" t="inlineStr">
+      <c r="GD3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="GE3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="GF3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="GG3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="GH3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="GI3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="GJ3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="GK3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with electrolysis</t>
         </is>
       </c>
-      <c r="AH3" s="1" t="inlineStr">
+      <c r="GL3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="GM3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="GN3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="GO3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="GP3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="GQ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="GR3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="GS3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="GT3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
-      <c r="AI3" s="1" t="inlineStr">
+      <c r="GU3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="GV3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of electrolyser</t>
         </is>
       </c>
-      <c r="AJ3" s="1" t="inlineStr">
+      <c r="GW3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="GX3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="GY3" s="1" t="inlineStr">
         <is>
           <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
-      <c r="AK3" s="1" t="inlineStr">
+      <c r="GZ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="HA3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
-      <c r="AL3" s="1" t="inlineStr">
+      <c r="HB3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="HC3" s="1" t="inlineStr">
         <is>
           <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
-      <c r="AM3" s="1" t="inlineStr">
+      <c r="HD3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="HE3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="HF3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="HG3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="HH3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="HI3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="HJ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="HK3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="HL3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
-      <c r="AN3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="AO3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="AP3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="AQ3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="AR3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="AS3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="AT3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="AU3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="AV3" s="1" t="inlineStr">
+      <c r="HM3" s="1" t="inlineStr">
         <is>
           <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="AW3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="AX3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="AY3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="AZ3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="BA3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="BB3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="BC3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="BD3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="BE3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="BF3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="BG3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="BH3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="BI3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="BJ3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="BK3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="BL3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="BM3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="BN3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="BO3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="BP3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="BQ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="BR3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="BS3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="BT3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="BU3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="BV3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="BW3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="BX3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="BY3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="BZ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="CA3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="CB3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="CC3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="CD3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="CE3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="CF3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="CG3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="CH3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="CI3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="CJ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="CK3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="CL3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="CM3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="CN3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="CO3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="CP3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="CQ3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="CR3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="CS3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="CT3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="CU3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="CV3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="CW3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="CX3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="CY3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="CZ3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="DA3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="DB3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="DC3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="DD3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="DE3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="DF3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="DG3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="DH3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="DI3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="DJ3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="DK3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="DL3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="DM3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="DN3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="DO3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="DP3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="DQ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="DR3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="DS3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="DT3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="DU3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="DV3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="DW3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="DX3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="DY3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="DZ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="EA3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="EB3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="EC3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="ED3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="EE3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="EF3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="EG3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="EH3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="EI3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="EJ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="EK3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="EL3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="EM3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="EN3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="EO3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="EP3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="EQ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="ER3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="ES3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="ET3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="EU3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="EV3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="EW3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="EX3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="EY3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="EZ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="FA3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="FB3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="FC3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="FD3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="FE3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="FF3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="FG3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="FH3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="FI3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="FJ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="FK3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="FL3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="FM3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="FN3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="FO3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="FP3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="FQ3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="FR3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="FS3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="FT3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="FU3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="FV3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="FW3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="FX3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="FY3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="FZ3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="GA3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="GB3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="GC3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="GD3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="GE3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="GF3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="GG3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="GH3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="GI3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="GJ3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="GK3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="GL3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="GM3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="GN3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="GO3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="GP3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="GQ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="GR3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="GS3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="GT3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="GU3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="GV3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="GW3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="GX3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="GY3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="GZ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="HA3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="HB3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="HC3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="HD3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="HE3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="HF3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="HG3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="HH3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="HI3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="HJ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="HK3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="HL3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="HM3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -12271,1102 +12271,1102 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
           <t>Manufacturing of steam reformer</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with electrolysis</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="V3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="W3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="X3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of electrolyser</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="Y3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="Z3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="AA3" s="1" t="inlineStr">
         <is>
           <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="AD3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="AE3" s="1" t="inlineStr">
         <is>
           <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="AF3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="AG3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="AH3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="AI3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="AJ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="AK3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="AL3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="AM3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="AN3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="AO3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="AP3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="AQ3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="AR3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="AS3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="AT3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="AU3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="AV3" s="1" t="inlineStr">
         <is>
           <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="AW3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="AX3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="AY3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="AZ3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="BA3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="BB3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="BC3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="BD3" s="1" t="inlineStr">
         <is>
           <t>Steel production through NG-DR</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="BE3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="BF3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="BG3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="BH3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="BI3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="BJ3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="BK3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="BL3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="BM3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of steam reformer</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="BN3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="BO3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="BP3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="BQ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="BR3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="BS3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="BT3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="BU3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with electrolysis</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="BV3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="BW3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="BX3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="BY3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="BZ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="CA3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="CB3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="CC3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="CD3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="CE3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="CF3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of electrolyser</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
+      <c r="CG3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="CH3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="CI3" s="1" t="inlineStr">
         <is>
           <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
-      <c r="Q3" s="1" t="inlineStr">
+      <c r="CJ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="CK3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
-      <c r="R3" s="1" t="inlineStr">
+      <c r="CL3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="CM3" s="1" t="inlineStr">
         <is>
           <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
-      <c r="S3" s="1" t="inlineStr">
+      <c r="CN3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="CO3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="CP3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="CQ3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="CR3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="CS3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="CT3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="CU3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="CV3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
-      <c r="T3" s="1" t="inlineStr">
+      <c r="CW3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="CX3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="CY3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="CZ3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="DA3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="DB3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="DC3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="DD3" s="1" t="inlineStr">
         <is>
           <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
-      <c r="U3" s="1" t="inlineStr">
+      <c r="DE3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="DF3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="DG3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="DH3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="DI3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="DJ3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="DK3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="DL3" s="1" t="inlineStr">
         <is>
           <t>Steel production through NG-DR</t>
         </is>
       </c>
-      <c r="V3" s="1" t="inlineStr">
+      <c r="DM3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="DN3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="DO3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="DP3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="DQ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="DR3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="DS3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="DT3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="DU3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of steam reformer</t>
         </is>
       </c>
-      <c r="W3" s="1" t="inlineStr">
+      <c r="DV3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="DW3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="DX3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="DY3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="DZ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="EA3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="EB3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="EC3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with electrolysis</t>
         </is>
       </c>
-      <c r="X3" s="1" t="inlineStr">
+      <c r="ED3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="EE3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="EF3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="EG3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="EH3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="EI3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="EJ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="EK3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="EL3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
-      <c r="Y3" s="1" t="inlineStr">
+      <c r="EM3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="EN3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of electrolyser</t>
         </is>
       </c>
-      <c r="Z3" s="1" t="inlineStr">
+      <c r="EO3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="EP3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="EQ3" s="1" t="inlineStr">
         <is>
           <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
-      <c r="AA3" s="1" t="inlineStr">
+      <c r="ER3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="ES3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
-      <c r="AB3" s="1" t="inlineStr">
+      <c r="ET3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="EU3" s="1" t="inlineStr">
         <is>
           <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
-      <c r="AC3" s="1" t="inlineStr">
+      <c r="EV3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="EW3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="EX3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="EY3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="EZ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="FA3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="FB3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="FC3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="FD3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
-      <c r="AD3" s="1" t="inlineStr">
+      <c r="FE3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="FF3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="FG3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="FH3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="FI3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="FJ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="FK3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="FL3" s="1" t="inlineStr">
         <is>
           <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
-      <c r="AE3" s="1" t="inlineStr">
+      <c r="FM3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="FN3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="FO3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="FP3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="FQ3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="FR3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="FS3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="FT3" s="1" t="inlineStr">
         <is>
           <t>Steel production through NG-DR</t>
         </is>
       </c>
-      <c r="AF3" s="1" t="inlineStr">
+      <c r="FU3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="FV3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="FW3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="FX3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="FY3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="FZ3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="GA3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="GB3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="GC3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of steam reformer</t>
         </is>
       </c>
-      <c r="AG3" s="1" t="inlineStr">
+      <c r="GD3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="GE3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="GF3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="GG3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="GH3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="GI3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="GJ3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="GK3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with electrolysis</t>
         </is>
       </c>
-      <c r="AH3" s="1" t="inlineStr">
+      <c r="GL3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="GM3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="GN3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="GO3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="GP3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="GQ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="GR3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="GS3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="GT3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
-      <c r="AI3" s="1" t="inlineStr">
+      <c r="GU3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="GV3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of electrolyser</t>
         </is>
       </c>
-      <c r="AJ3" s="1" t="inlineStr">
+      <c r="GW3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="GX3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="GY3" s="1" t="inlineStr">
         <is>
           <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
-      <c r="AK3" s="1" t="inlineStr">
+      <c r="GZ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="HA3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
-      <c r="AL3" s="1" t="inlineStr">
+      <c r="HB3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="HC3" s="1" t="inlineStr">
         <is>
           <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
-      <c r="AM3" s="1" t="inlineStr">
+      <c r="HD3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="HE3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="HF3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="HG3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="HH3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="HI3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="HJ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="HK3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="HL3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
-      <c r="AN3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="AO3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="AP3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="AQ3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="AR3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="AS3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="AT3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="AU3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="AV3" s="1" t="inlineStr">
+      <c r="HM3" s="1" t="inlineStr">
         <is>
           <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="AW3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="AX3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="AY3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="AZ3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="BA3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="BB3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="BC3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="BD3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="BE3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="BF3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="BG3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="BH3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="BI3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="BJ3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="BK3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="BL3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="BM3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="BN3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="BO3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="BP3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="BQ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="BR3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="BS3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="BT3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="BU3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="BV3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="BW3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="BX3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="BY3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="BZ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="CA3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="CB3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="CC3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="CD3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="CE3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="CF3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="CG3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="CH3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="CI3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="CJ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="CK3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="CL3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="CM3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="CN3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="CO3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="CP3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="CQ3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="CR3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="CS3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="CT3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="CU3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="CV3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="CW3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="CX3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="CY3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="CZ3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="DA3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="DB3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="DC3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="DD3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="DE3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="DF3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="DG3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="DH3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="DI3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="DJ3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="DK3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="DL3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="DM3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="DN3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="DO3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="DP3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="DQ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="DR3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="DS3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="DT3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="DU3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="DV3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="DW3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="DX3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="DY3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="DZ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="EA3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="EB3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="EC3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="ED3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="EE3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="EF3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="EG3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="EH3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="EI3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="EJ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="EK3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="EL3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="EM3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="EN3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="EO3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="EP3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="EQ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="ER3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="ES3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="ET3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="EU3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="EV3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="EW3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="EX3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="EY3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="EZ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="FA3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="FB3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="FC3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="FD3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="FE3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="FF3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="FG3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="FH3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="FI3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="FJ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="FK3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="FL3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="FM3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="FN3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="FO3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="FP3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="FQ3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="FR3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="FS3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="FT3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="FU3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="FV3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="FW3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="FX3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="FY3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="FZ3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="GA3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="GB3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="GC3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="GD3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="GE3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="GF3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="GG3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="GH3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="GI3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="GJ3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="GK3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="GL3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="GM3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="GN3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="GO3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="GP3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="GQ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="GR3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="GS3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="GT3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="GU3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="GV3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="GW3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="GX3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="GY3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="GZ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="HA3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="HB3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="HC3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="HD3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="HE3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="HF3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="HG3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="HH3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="HI3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="HJ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="HK3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="HL3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="HM3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -15703,1102 +15703,1102 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>Manufacturing of steam reformer</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with electrolysis</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="V3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="W3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="X3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="Y3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="Z3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of electrolyser</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="AA3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="inlineStr">
         <is>
           <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="AD3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="AE3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="AF3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="AG3" s="1" t="inlineStr">
         <is>
           <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="AH3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="AI3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="AJ3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="AK3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="AL3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="AM3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="AN3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="AO3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="AP3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="AQ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="AR3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="AS3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="AT3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="AU3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="AV3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="AW3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="AX3" s="1" t="inlineStr">
         <is>
           <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="AY3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="AZ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="BA3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="BB3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="BC3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="BD3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="BE3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="BF3" s="1" t="inlineStr">
         <is>
           <t>Steel production through NG-DR</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="BG3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="BH3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="BI3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="BJ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="BK3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="BL3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="BM3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="BN3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="BO3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of steam reformer</t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="BP3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="BQ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="BR3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="BS3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="BT3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="BU3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="BV3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="BW3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with electrolysis</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
+      <c r="BX3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="BY3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="BZ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="CA3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="CB3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="CC3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="CD3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="CE3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="CF3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
-      <c r="Q3" s="1" t="inlineStr">
+      <c r="CG3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="CH3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of electrolyser</t>
         </is>
       </c>
-      <c r="R3" s="1" t="inlineStr">
+      <c r="CI3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="CJ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="CK3" s="1" t="inlineStr">
         <is>
           <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
-      <c r="S3" s="1" t="inlineStr">
+      <c r="CL3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="CM3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
-      <c r="T3" s="1" t="inlineStr">
+      <c r="CN3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="CO3" s="1" t="inlineStr">
         <is>
           <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
-      <c r="U3" s="1" t="inlineStr">
+      <c r="CP3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="CQ3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="CR3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="CS3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="CT3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="CU3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="CV3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="CW3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="CX3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
-      <c r="V3" s="1" t="inlineStr">
+      <c r="CY3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="CZ3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="DA3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="DB3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="DC3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="DD3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="DE3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="DF3" s="1" t="inlineStr">
         <is>
           <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
-      <c r="W3" s="1" t="inlineStr">
+      <c r="DG3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="DH3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="DI3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="DJ3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="DK3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="DL3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="DM3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="DN3" s="1" t="inlineStr">
         <is>
           <t>Steel production through NG-DR</t>
         </is>
       </c>
-      <c r="X3" s="1" t="inlineStr">
+      <c r="DO3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="DP3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="DQ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="DR3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="DS3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="DT3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="DU3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="DV3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="DW3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of steam reformer</t>
         </is>
       </c>
-      <c r="Y3" s="1" t="inlineStr">
+      <c r="DX3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="DY3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="DZ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="EA3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="EB3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="EC3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="ED3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="EE3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with electrolysis</t>
         </is>
       </c>
-      <c r="Z3" s="1" t="inlineStr">
+      <c r="EF3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="EG3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="EH3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="EI3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="EJ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="EK3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="EL3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="EM3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="EN3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
-      <c r="AA3" s="1" t="inlineStr">
+      <c r="EO3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="EP3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of electrolyser</t>
         </is>
       </c>
-      <c r="AB3" s="1" t="inlineStr">
+      <c r="EQ3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="ER3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="ES3" s="1" t="inlineStr">
         <is>
           <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
-      <c r="AC3" s="1" t="inlineStr">
+      <c r="ET3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="EU3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
-      <c r="AD3" s="1" t="inlineStr">
+      <c r="EV3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="EW3" s="1" t="inlineStr">
         <is>
           <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
-      <c r="AE3" s="1" t="inlineStr">
+      <c r="EX3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="EY3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="EZ3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="FA3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="FB3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="FC3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="FD3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="FE3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="FF3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
-      <c r="AF3" s="1" t="inlineStr">
+      <c r="FG3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="FH3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="FI3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="FJ3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="FK3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="FL3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="FM3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="FN3" s="1" t="inlineStr">
         <is>
           <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
-      <c r="AG3" s="1" t="inlineStr">
+      <c r="FO3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="FP3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="FQ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="FR3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="FS3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="FT3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="FU3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="FV3" s="1" t="inlineStr">
         <is>
           <t>Steel production through NG-DR</t>
         </is>
       </c>
-      <c r="AH3" s="1" t="inlineStr">
+      <c r="FW3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="FX3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="FY3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="FZ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="GA3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="GB3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="GC3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="GD3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="GE3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of steam reformer</t>
         </is>
       </c>
-      <c r="AI3" s="1" t="inlineStr">
+      <c r="GF3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="GG3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="GH3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="GI3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="GJ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="GK3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="GL3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="GM3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with electrolysis</t>
         </is>
       </c>
-      <c r="AJ3" s="1" t="inlineStr">
+      <c r="GN3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="GO3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="GP3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="GQ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="GR3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="GS3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="GT3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="GU3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with H2 inj to BF</t>
+        </is>
+      </c>
+      <c r="GV3" s="1" t="inlineStr">
         <is>
           <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
-      <c r="AK3" s="1" t="inlineStr">
+      <c r="GW3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="GX3" s="1" t="inlineStr">
         <is>
           <t>Manufacturing of electrolyser</t>
         </is>
       </c>
-      <c r="AL3" s="1" t="inlineStr">
+      <c r="GY3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="GZ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="HA3" s="1" t="inlineStr">
         <is>
           <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
-      <c r="AM3" s="1" t="inlineStr">
+      <c r="HB3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="HC3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
-      <c r="AN3" s="1" t="inlineStr">
+      <c r="HD3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
+        </is>
+      </c>
+      <c r="HE3" s="1" t="inlineStr">
         <is>
           <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
-      <c r="AO3" s="1" t="inlineStr">
+      <c r="HF3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with steam reforming</t>
+        </is>
+      </c>
+      <c r="HG3" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen production with electrolysis</t>
+        </is>
+      </c>
+      <c r="HH3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of electrolyser</t>
+        </is>
+      </c>
+      <c r="HI3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing of steam reformer</t>
+        </is>
+      </c>
+      <c r="HJ3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through NG-DR</t>
+        </is>
+      </c>
+      <c r="HK3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production BF-BOF + CCUS</t>
+        </is>
+      </c>
+      <c r="HL3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production through 100%H2-DR</t>
+        </is>
+      </c>
+      <c r="HM3" s="1" t="inlineStr">
+        <is>
+          <t>Steel production with charcoal inj to BF</t>
+        </is>
+      </c>
+      <c r="HN3" s="1" t="inlineStr">
         <is>
           <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
-      <c r="AP3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="AQ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="AR3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="AS3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="AT3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="AU3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="AV3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="AW3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="AX3" s="1" t="inlineStr">
+      <c r="HO3" s="1" t="inlineStr">
         <is>
           <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="AY3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="AZ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="BA3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="BB3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="BC3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="BD3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="BE3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="BF3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="BG3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="BH3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="BI3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="BJ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="BK3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="BL3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="BM3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="BN3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="BO3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="BP3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="BQ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="BR3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="BS3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="BT3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="BU3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="BV3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="BW3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="BX3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="BY3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="BZ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="CA3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="CB3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="CC3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="CD3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="CE3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="CF3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="CG3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="CH3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="CI3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="CJ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="CK3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="CL3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="CM3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="CN3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="CO3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="CP3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="CQ3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="CR3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="CS3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="CT3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="CU3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="CV3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="CW3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="CX3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="CY3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="CZ3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="DA3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="DB3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="DC3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="DD3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="DE3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="DF3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="DG3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="DH3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="DI3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="DJ3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="DK3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="DL3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="DM3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="DN3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="DO3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="DP3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="DQ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="DR3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="DS3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="DT3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="DU3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="DV3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="DW3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="DX3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="DY3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="DZ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="EA3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="EB3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="EC3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="ED3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="EE3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="EF3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="EG3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="EH3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="EI3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="EJ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="EK3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="EL3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="EM3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="EN3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="EO3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="EP3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="EQ3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="ER3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="ES3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="ET3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="EU3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="EV3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="EW3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="EX3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="EY3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="EZ3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="FA3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="FB3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="FC3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="FD3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="FE3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="FF3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="FG3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="FH3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="FI3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="FJ3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="FK3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="FL3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="FM3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="FN3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="FO3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="FP3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="FQ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="FR3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="FS3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="FT3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="FU3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="FV3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="FW3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="FX3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="FY3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="FZ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="GA3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="GB3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="GC3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="GD3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="GE3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="GF3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="GG3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="GH3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="GI3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="GJ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="GK3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="GL3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="GM3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="GN3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="GO3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="GP3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="GQ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="GR3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="GS3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="GT3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="GU3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="GV3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="GW3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="GX3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="GY3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="GZ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="HA3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="HB3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="HC3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="HD3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="HE3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
-        </is>
-      </c>
-      <c r="HF3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of steam reformer</t>
-        </is>
-      </c>
-      <c r="HG3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with electrolysis</t>
-        </is>
-      </c>
-      <c r="HH3" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen production with steam reforming</t>
-        </is>
-      </c>
-      <c r="HI3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing of electrolyser</t>
-        </is>
-      </c>
-      <c r="HJ3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production BF-BOF + CCUS</t>
-        </is>
-      </c>
-      <c r="HK3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF</t>
-        </is>
-      </c>
-      <c r="HL3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with H2 inj to BF</t>
-        </is>
-      </c>
-      <c r="HM3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
-        </is>
-      </c>
-      <c r="HN3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through 100%H2-DR</t>
-        </is>
-      </c>
-      <c r="HO3" s="1" t="inlineStr">
-        <is>
-          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -17127,7 +17127,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -17161,7 +17161,7 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -17178,7 +17178,7 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -17212,7 +17212,7 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -17229,7 +17229,7 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -17246,7 +17246,7 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -17263,7 +17263,7 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -17280,7 +17280,7 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -17297,7 +17297,7 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -17331,7 +17331,7 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -17348,7 +17348,7 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -17365,7 +17365,7 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -17382,7 +17382,7 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -17399,7 +17399,7 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -17416,7 +17416,7 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -17433,7 +17433,7 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -17450,7 +17450,7 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -17467,7 +17467,7 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -17518,7 +17518,7 @@
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -17535,7 +17535,7 @@
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -17552,7 +17552,7 @@
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -17569,7 +17569,7 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -17586,7 +17586,7 @@
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -17620,7 +17620,7 @@
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -17671,7 +17671,7 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -17688,7 +17688,7 @@
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -17705,7 +17705,7 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -17722,7 +17722,7 @@
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -17739,7 +17739,7 @@
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -17756,7 +17756,7 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -17773,7 +17773,7 @@
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -17790,7 +17790,7 @@
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -17807,7 +17807,7 @@
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -17841,7 +17841,7 @@
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -17858,7 +17858,7 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -17875,7 +17875,7 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -17892,7 +17892,7 @@
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -17909,7 +17909,7 @@
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -17926,7 +17926,7 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -17943,7 +17943,7 @@
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -17960,7 +17960,7 @@
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -17977,7 +17977,7 @@
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -18011,7 +18011,7 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -18028,7 +18028,7 @@
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -18045,7 +18045,7 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -18062,7 +18062,7 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -18079,7 +18079,7 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -18096,7 +18096,7 @@
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -18113,7 +18113,7 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -18130,7 +18130,7 @@
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -18147,7 +18147,7 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -18181,7 +18181,7 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -18198,7 +18198,7 @@
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -18215,7 +18215,7 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -18232,7 +18232,7 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -18249,7 +18249,7 @@
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -18266,7 +18266,7 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -18283,7 +18283,7 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -18300,7 +18300,7 @@
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -18317,7 +18317,7 @@
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -18351,7 +18351,7 @@
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -18368,7 +18368,7 @@
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -18402,7 +18402,7 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -18419,7 +18419,7 @@
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -18436,7 +18436,7 @@
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -18453,7 +18453,7 @@
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -18470,7 +18470,7 @@
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -18487,7 +18487,7 @@
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -18521,7 +18521,7 @@
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -18538,7 +18538,7 @@
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -18555,7 +18555,7 @@
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -18572,7 +18572,7 @@
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -18589,7 +18589,7 @@
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -18606,7 +18606,7 @@
       </c>
       <c r="C91" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -18623,7 +18623,7 @@
       </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -18640,7 +18640,7 @@
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -18657,7 +18657,7 @@
       </c>
       <c r="C94" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -18691,7 +18691,7 @@
       </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="C97" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -18725,7 +18725,7 @@
       </c>
       <c r="C98" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -18742,7 +18742,7 @@
       </c>
       <c r="C99" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -18759,7 +18759,7 @@
       </c>
       <c r="C100" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -18776,7 +18776,7 @@
       </c>
       <c r="C101" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="C102" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -18810,7 +18810,7 @@
       </c>
       <c r="C103" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -18827,7 +18827,7 @@
       </c>
       <c r="C104" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -18861,7 +18861,7 @@
       </c>
       <c r="C106" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -18878,7 +18878,7 @@
       </c>
       <c r="C107" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -18895,7 +18895,7 @@
       </c>
       <c r="C108" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -18912,7 +18912,7 @@
       </c>
       <c r="C109" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -18929,7 +18929,7 @@
       </c>
       <c r="C110" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -18946,7 +18946,7 @@
       </c>
       <c r="C111" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -18963,7 +18963,7 @@
       </c>
       <c r="C112" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -18980,7 +18980,7 @@
       </c>
       <c r="C113" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -18997,7 +18997,7 @@
       </c>
       <c r="C114" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -19031,7 +19031,7 @@
       </c>
       <c r="C116" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -19048,7 +19048,7 @@
       </c>
       <c r="C117" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -19065,7 +19065,7 @@
       </c>
       <c r="C118" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -19082,7 +19082,7 @@
       </c>
       <c r="C119" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -19099,7 +19099,7 @@
       </c>
       <c r="C120" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -19116,7 +19116,7 @@
       </c>
       <c r="C121" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -19133,7 +19133,7 @@
       </c>
       <c r="C122" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -19150,7 +19150,7 @@
       </c>
       <c r="C123" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -19167,7 +19167,7 @@
       </c>
       <c r="C124" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -19201,7 +19201,7 @@
       </c>
       <c r="C126" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -19218,7 +19218,7 @@
       </c>
       <c r="C127" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -19235,7 +19235,7 @@
       </c>
       <c r="C128" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -19252,7 +19252,7 @@
       </c>
       <c r="C129" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -19269,7 +19269,7 @@
       </c>
       <c r="C130" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -19286,7 +19286,7 @@
       </c>
       <c r="C131" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -19303,7 +19303,7 @@
       </c>
       <c r="C132" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -19320,7 +19320,7 @@
       </c>
       <c r="C133" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -19337,7 +19337,7 @@
       </c>
       <c r="C134" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -19371,7 +19371,7 @@
       </c>
       <c r="C136" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -19388,7 +19388,7 @@
       </c>
       <c r="C137" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -19405,7 +19405,7 @@
       </c>
       <c r="C138" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -19422,7 +19422,7 @@
       </c>
       <c r="C139" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -19439,7 +19439,7 @@
       </c>
       <c r="C140" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -19456,7 +19456,7 @@
       </c>
       <c r="C141" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -19473,7 +19473,7 @@
       </c>
       <c r="C142" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -19490,7 +19490,7 @@
       </c>
       <c r="C143" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -19507,7 +19507,7 @@
       </c>
       <c r="C144" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -19541,7 +19541,7 @@
       </c>
       <c r="C146" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -19558,7 +19558,7 @@
       </c>
       <c r="C147" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -19575,7 +19575,7 @@
       </c>
       <c r="C148" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -19592,7 +19592,7 @@
       </c>
       <c r="C149" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -19609,7 +19609,7 @@
       </c>
       <c r="C150" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -19626,7 +19626,7 @@
       </c>
       <c r="C151" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -19643,7 +19643,7 @@
       </c>
       <c r="C152" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -19660,7 +19660,7 @@
       </c>
       <c r="C153" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -19677,7 +19677,7 @@
       </c>
       <c r="C154" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -19711,7 +19711,7 @@
       </c>
       <c r="C156" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -19728,7 +19728,7 @@
       </c>
       <c r="C157" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -19745,7 +19745,7 @@
       </c>
       <c r="C158" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -19762,7 +19762,7 @@
       </c>
       <c r="C159" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -19779,7 +19779,7 @@
       </c>
       <c r="C160" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -19796,7 +19796,7 @@
       </c>
       <c r="C161" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -19813,7 +19813,7 @@
       </c>
       <c r="C162" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -19830,7 +19830,7 @@
       </c>
       <c r="C163" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -19847,7 +19847,7 @@
       </c>
       <c r="C164" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -19881,7 +19881,7 @@
       </c>
       <c r="C166" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -19898,7 +19898,7 @@
       </c>
       <c r="C167" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -19915,7 +19915,7 @@
       </c>
       <c r="C168" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="C169" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -19949,7 +19949,7 @@
       </c>
       <c r="C170" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -19966,7 +19966,7 @@
       </c>
       <c r="C171" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -19983,7 +19983,7 @@
       </c>
       <c r="C172" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -20000,7 +20000,7 @@
       </c>
       <c r="C173" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -20017,7 +20017,7 @@
       </c>
       <c r="C174" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -20051,7 +20051,7 @@
       </c>
       <c r="C176" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -20068,7 +20068,7 @@
       </c>
       <c r="C177" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -20085,7 +20085,7 @@
       </c>
       <c r="C178" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -20102,7 +20102,7 @@
       </c>
       <c r="C179" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -20119,7 +20119,7 @@
       </c>
       <c r="C180" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -20136,7 +20136,7 @@
       </c>
       <c r="C181" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -20153,7 +20153,7 @@
       </c>
       <c r="C182" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -20170,7 +20170,7 @@
       </c>
       <c r="C183" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -20187,7 +20187,7 @@
       </c>
       <c r="C184" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -20221,7 +20221,7 @@
       </c>
       <c r="C186" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -20238,7 +20238,7 @@
       </c>
       <c r="C187" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -20255,7 +20255,7 @@
       </c>
       <c r="C188" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -20272,7 +20272,7 @@
       </c>
       <c r="C189" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -20289,7 +20289,7 @@
       </c>
       <c r="C190" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -20306,7 +20306,7 @@
       </c>
       <c r="C191" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -20323,7 +20323,7 @@
       </c>
       <c r="C192" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -20340,7 +20340,7 @@
       </c>
       <c r="C193" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -20357,7 +20357,7 @@
       </c>
       <c r="C194" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -20391,7 +20391,7 @@
       </c>
       <c r="C196" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -20408,7 +20408,7 @@
       </c>
       <c r="C197" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -20425,7 +20425,7 @@
       </c>
       <c r="C198" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -20442,7 +20442,7 @@
       </c>
       <c r="C199" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -20459,7 +20459,7 @@
       </c>
       <c r="C200" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -20476,7 +20476,7 @@
       </c>
       <c r="C201" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -20493,7 +20493,7 @@
       </c>
       <c r="C202" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -20510,7 +20510,7 @@
       </c>
       <c r="C203" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -20527,7 +20527,7 @@
       </c>
       <c r="C204" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -20561,7 +20561,7 @@
       </c>
       <c r="C206" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -20578,7 +20578,7 @@
       </c>
       <c r="C207" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="C208" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -20612,7 +20612,7 @@
       </c>
       <c r="C209" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -20629,7 +20629,7 @@
       </c>
       <c r="C210" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -20646,7 +20646,7 @@
       </c>
       <c r="C211" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -20663,7 +20663,7 @@
       </c>
       <c r="C212" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -20680,7 +20680,7 @@
       </c>
       <c r="C213" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -20697,7 +20697,7 @@
       </c>
       <c r="C214" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
     </row>
@@ -20731,7 +20731,7 @@
       </c>
       <c r="C216" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
     </row>
@@ -20748,7 +20748,7 @@
       </c>
       <c r="C217" s="1" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
     </row>
@@ -20765,7 +20765,7 @@
       </c>
       <c r="C218" s="1" t="inlineStr">
         <is>
-          <t>Steel production BF-BOF + CCUS</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
     </row>
@@ -20782,7 +20782,7 @@
       </c>
       <c r="C219" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Steel production BF-BOF + CCUS</t>
         </is>
       </c>
     </row>
@@ -20799,7 +20799,7 @@
       </c>
       <c r="C220" s="1" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
     </row>
@@ -20816,7 +20816,7 @@
       </c>
       <c r="C221" s="1" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF + CCUS</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
     </row>
@@ -20833,7 +20833,7 @@
       </c>
       <c r="C222" s="1" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with charcoal inj to BF + CCUS</t>
         </is>
       </c>
     </row>
@@ -20850,7 +20850,7 @@
       </c>
       <c r="C223" s="1" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
     </row>
@@ -20894,7 +20894,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Manufacturing of steam reformer</t>
+          <t>Steel production through NG-DR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -20902,7 +20902,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Hydrogen production with electrolysis</t>
+          <t>Hydrogen production with steam reforming</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -20918,7 +20918,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Steel production with charcoal inj to BF</t>
+          <t>Hydrogen production with electrolysis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -20926,7 +20926,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Hydrogen production with steam reforming</t>
+          <t>Steel production through 100%H2-DR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -20934,7 +20934,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Steel production with H2 inj to BF</t>
+          <t>Manufacturing of electrolyser</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -20942,7 +20942,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Manufacturing of electrolyser</t>
+          <t>Steel production with charcoal inj to BF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -20958,7 +20958,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Steel production through 100%H2-DR</t>
+          <t>Steel production with H2 inj to BF</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -20966,7 +20966,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Steel production through NG-DR</t>
+          <t>Manufacturing of steam reformer</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
